--- a/files/SM1/K2/K2-Exercises.xlsx
+++ b/files/SM1/K2/K2-Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9065B9-1046-4B30-9EC4-1B4284E21F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3EE679-2674-43AD-B988-6FBFF0990962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="17720" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>kassi</t>
   </si>
@@ -532,6 +532,66 @@
   </si>
   <si>
     <t>to travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bussilippu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puhelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milloin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virhe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viereen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maalata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,6 +1515,62 @@
       </c>
       <c r="B71" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
